--- a/utils/excel_tools/统计表.xlsx
+++ b/utils/excel_tools/统计表.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="sheet_1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
   </si>
@@ -32,6 +33,24 @@
   </si>
   <si>
     <t>功能描述</t>
+  </si>
+  <si>
+    <t>序号2</t>
+  </si>
+  <si>
+    <t>模块2</t>
+  </si>
+  <si>
+    <t>子模块2</t>
+  </si>
+  <si>
+    <t>功能2</t>
+  </si>
+  <si>
+    <t>子功能2</t>
+  </si>
+  <si>
+    <t>功能描述2</t>
   </si>
 </sst>
 </file>
@@ -421,4 +440,40 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/utils/excel_tools/统计表.xlsx
+++ b/utils/excel_tools/统计表.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="sheet_1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>序号</t>
   </si>
@@ -33,24 +32,6 @@
   </si>
   <si>
     <t>功能描述</t>
-  </si>
-  <si>
-    <t>序号2</t>
-  </si>
-  <si>
-    <t>模块2</t>
-  </si>
-  <si>
-    <t>子模块2</t>
-  </si>
-  <si>
-    <t>功能2</t>
-  </si>
-  <si>
-    <t>子功能2</t>
-  </si>
-  <si>
-    <t>功能描述2</t>
   </si>
 </sst>
 </file>
@@ -440,40 +421,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="6" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>